--- a/next_work_openrefine/base_auteurs_complete-normalised2.xlsx
+++ b/next_work_openrefine/base_auteurs_complete-normalised2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,26 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celian\Desktop\lifranum_carto\next_work_openrefine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{335F2F10-9CB7-4E9F-8F9F-1D5A359098D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFC2FEA-C089-44FF-BA6C-C245936BB215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="base_auteurs_complete-normalise" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="base_auteurs_complete-normalise" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'base_auteurs_complete-normalise'!$A$1:$AH$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'base_auteurs_complete-normalise'!$A$1:$AI$191</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$F$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$F$4:$F$60</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$G$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$G$4:$G$60</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet2!$I$4:$I$17</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet2!$J$3</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet2!$J$4:$J$17</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet2!$I$4:$I$17</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet2!$J$3</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet2!$J$4:$J$17</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="1670">
   <si>
     <t>ID_dataset</t>
   </si>
@@ -4983,13 +5005,67 @@
   </si>
   <si>
     <t>base</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Count of Age</t>
+  </si>
+  <si>
+    <t>27-30</t>
+  </si>
+  <si>
+    <t>30-35</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>45-50</t>
+  </si>
+  <si>
+    <t>40-45</t>
+  </si>
+  <si>
+    <t>50-55</t>
+  </si>
+  <si>
+    <t>55-60</t>
+  </si>
+  <si>
+    <t>60-65</t>
+  </si>
+  <si>
+    <t>65-70</t>
+  </si>
+  <si>
+    <t>90-95</t>
+  </si>
+  <si>
+    <t>70-75</t>
+  </si>
+  <si>
+    <t>75-80</t>
+  </si>
+  <si>
+    <t>80-85</t>
+  </si>
+  <si>
+    <t>85-90</t>
+  </si>
+  <si>
+    <t>Nb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5124,8 +5200,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5305,8 +5387,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -5421,6 +5509,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5467,7 +5564,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -5477,6 +5574,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -6381,6 +6484,71 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.7</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Pyramide des ages des auteurs du corpus</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Pyramide des ages des auteurs du corpus</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{4B5880B2-5563-4A26-B43B-FA57467B6545}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.8</cx:f>
+              <cx:v>Nb</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6422,6 +6590,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7467,6 +7675,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7544,8 +8260,91 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FE761E-0C90-4865-B7E3-5B099F335943}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3444240" y="1276350"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Celian" refreshedDate="44226.77407013889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="191">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Celian" refreshedDate="44226.77407013889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="191" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="AK1:AK1048576" sheet="base_auteurs_complete-normalise"/>
   </cacheSource>
@@ -7569,6 +8368,85 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Celian" refreshedDate="44226.799603587962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="191" xr:uid="{2E8D35D7-95FC-43AD-8192-3C2DD0EC7053}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="AI1:AI1048576" sheet="base_auteurs_complete-normalise"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="27" maxValue="2021" count="60">
+        <n v="29"/>
+        <n v="48"/>
+        <n v="68"/>
+        <n v="41"/>
+        <b v="0"/>
+        <n v="27"/>
+        <n v="46"/>
+        <n v="67"/>
+        <n v="2021"/>
+        <n v="31"/>
+        <n v="56"/>
+        <n v="42"/>
+        <n v="59"/>
+        <n v="71"/>
+        <n v="43"/>
+        <n v="53"/>
+        <n v="70"/>
+        <n v="51"/>
+        <n v="74"/>
+        <n v="64"/>
+        <n v="34"/>
+        <n v="76"/>
+        <n v="61"/>
+        <n v="77"/>
+        <n v="33"/>
+        <n v="62"/>
+        <n v="94"/>
+        <n v="40"/>
+        <n v="65"/>
+        <n v="66"/>
+        <n v="57"/>
+        <n v="52"/>
+        <n v="95"/>
+        <n v="49"/>
+        <n v="82"/>
+        <n v="78"/>
+        <n v="36"/>
+        <n v="39"/>
+        <n v="85"/>
+        <n v="75"/>
+        <n v="91"/>
+        <n v="32"/>
+        <n v="80"/>
+        <n v="81"/>
+        <n v="63"/>
+        <n v="47"/>
+        <n v="54"/>
+        <n v="73"/>
+        <n v="89"/>
+        <n v="58"/>
+        <n v="72"/>
+        <n v="50"/>
+        <n v="79"/>
+        <n v="37"/>
+        <n v="60"/>
+        <n v="38"/>
+        <n v="55"/>
+        <n v="93"/>
+        <n v="35"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="191">
   <r>
@@ -8143,12 +9021,590 @@
   </r>
   <r>
     <x v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="191">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="59"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -8194,6 +9650,282 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Nb By aut" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{701D1C42-4AC1-46C3-AC53-9DD4C8E9E556}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B64" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="61">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="41"/>
+        <item x="24"/>
+        <item x="20"/>
+        <item x="58"/>
+        <item x="36"/>
+        <item x="53"/>
+        <item x="55"/>
+        <item x="37"/>
+        <item x="27"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="45"/>
+        <item x="1"/>
+        <item x="33"/>
+        <item x="51"/>
+        <item x="17"/>
+        <item x="31"/>
+        <item x="15"/>
+        <item x="46"/>
+        <item x="56"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="49"/>
+        <item x="12"/>
+        <item x="54"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="44"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="50"/>
+        <item x="47"/>
+        <item x="18"/>
+        <item x="39"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="35"/>
+        <item x="52"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="34"/>
+        <item x="38"/>
+        <item x="48"/>
+        <item x="40"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="32"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="59"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="61">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Age" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -8503,10 +10235,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
@@ -8711,11 +10443,979 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4F7797-54DB-4E73-BA36-B5B0A695E2CB}">
+  <dimension ref="A3:J64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J4" s="5">
+        <f>SUM(G4:G5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1656</v>
+      </c>
+      <c r="J5" s="5">
+        <f>SUM(G6:G9)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J6" s="5">
+        <f>SUM(G10:G14)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>32</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J7" s="5">
+        <f>SUM(G15:G18)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J8" s="5">
+        <f>SUM(G19:G22)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J9" s="5">
+        <f>SUM(G23:G27)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>35</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1661</v>
+      </c>
+      <c r="J10" s="5">
+        <f>SUM(G28:G32)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J11" s="5">
+        <f>SUM(G33:G37)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>37</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J12" s="5">
+        <f>SUM(G38:G41)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>38</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>38</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J13" s="5">
+        <f>SUM(G42:G46)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>39</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1666</v>
+      </c>
+      <c r="J14" s="5">
+        <f>SUM(G47:G51)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="9">
+        <v>40</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="J15" s="5">
+        <f>SUM(G52:G54)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>41</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J16" s="5">
+        <f>SUM(G55:G56)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>42</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>42</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J17">
+        <f>SUM(G57:G60)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>43</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9">
+        <v>43</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>46</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>46</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>47</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9">
+        <v>47</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9">
+        <v>48</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>49</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <v>50</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>51</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9">
+        <v>51</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>52</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3</v>
+      </c>
+      <c r="F25" s="9">
+        <v>52</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>53</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9">
+        <v>53</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9">
+        <v>54</v>
+      </c>
+      <c r="G27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>55</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>55</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>56</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="F29" s="9">
+        <v>56</v>
+      </c>
+      <c r="G29" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>57</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <v>57</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>58</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9">
+        <v>58</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>59</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9">
+        <v>59</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>60</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>60</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>61</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9">
+        <v>61</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>62</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
+        <v>62</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>63</v>
+      </c>
+      <c r="B36" s="5">
+        <v>5</v>
+      </c>
+      <c r="F36" s="9">
+        <v>63</v>
+      </c>
+      <c r="G36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>64</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="F37" s="9">
+        <v>64</v>
+      </c>
+      <c r="G37" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>65</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3</v>
+      </c>
+      <c r="F38" s="9">
+        <v>65</v>
+      </c>
+      <c r="G38" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>66</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9">
+        <v>66</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>67</v>
+      </c>
+      <c r="B40" s="5">
+        <v>5</v>
+      </c>
+      <c r="F40" s="9">
+        <v>67</v>
+      </c>
+      <c r="G40" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>68</v>
+      </c>
+      <c r="B41" s="5">
+        <v>6</v>
+      </c>
+      <c r="F41" s="9">
+        <v>68</v>
+      </c>
+      <c r="G41" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>70</v>
+      </c>
+      <c r="B42" s="5">
+        <v>3</v>
+      </c>
+      <c r="F42" s="9">
+        <v>70</v>
+      </c>
+      <c r="G42" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>71</v>
+      </c>
+      <c r="B43" s="5">
+        <v>3</v>
+      </c>
+      <c r="F43" s="9">
+        <v>71</v>
+      </c>
+      <c r="G43" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>72</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="9">
+        <v>72</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>73</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2</v>
+      </c>
+      <c r="F45" s="9">
+        <v>73</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>74</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" s="9">
+        <v>74</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>75</v>
+      </c>
+      <c r="B47" s="5">
+        <v>4</v>
+      </c>
+      <c r="F47" s="9">
+        <v>75</v>
+      </c>
+      <c r="G47" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>76</v>
+      </c>
+      <c r="B48" s="5">
+        <v>5</v>
+      </c>
+      <c r="F48" s="9">
+        <v>76</v>
+      </c>
+      <c r="G48" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>77</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="9">
+        <v>77</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>78</v>
+      </c>
+      <c r="B50" s="5">
+        <v>2</v>
+      </c>
+      <c r="F50" s="9">
+        <v>78</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>79</v>
+      </c>
+      <c r="B51" s="5">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9">
+        <v>79</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>80</v>
+      </c>
+      <c r="B52" s="5">
+        <v>3</v>
+      </c>
+      <c r="F52" s="9">
+        <v>80</v>
+      </c>
+      <c r="G52" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>81</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2</v>
+      </c>
+      <c r="F53" s="9">
+        <v>81</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>82</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="9">
+        <v>82</v>
+      </c>
+      <c r="G54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>85</v>
+      </c>
+      <c r="B55" s="5">
+        <v>3</v>
+      </c>
+      <c r="F55" s="9">
+        <v>85</v>
+      </c>
+      <c r="G55" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>89</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="F56" s="9">
+        <v>89</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>91</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="9">
+        <v>91</v>
+      </c>
+      <c r="G57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>93</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="9">
+        <v>93</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>94</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="9">
+        <v>94</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>95</v>
+      </c>
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="F60" s="9">
+        <v>95</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B61" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B62" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B64" s="5">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8823,6 +11523,9 @@
       <c r="AH1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" t="s">
+        <v>1652</v>
+      </c>
       <c r="AK1" t="s">
         <v>1639</v>
       </c>
@@ -8900,6 +11603,10 @@
       <c r="AH2">
         <v>1741</v>
       </c>
+      <c r="AI2">
+        <f ca="1">IF(M2="",YEAR(TODAY())-I2)</f>
+        <v>29</v>
+      </c>
       <c r="AK2">
         <f>6-SUM(COUNTBLANK(X2:AA2),COUNTBLANK(F2:G2))</f>
         <v>3</v>
@@ -8969,8 +11676,12 @@
       <c r="AH3" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI66" ca="1" si="0">IF(M3="",YEAR(TODAY())-I3)</f>
+        <v>48</v>
+      </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK66" si="0">6-SUM(COUNTBLANK(X3:AA3),COUNTBLANK(F3:G3))</f>
+        <f t="shared" ref="AK3:AK66" si="1">6-SUM(COUNTBLANK(X3:AA3),COUNTBLANK(F3:G3))</f>
         <v>3</v>
       </c>
     </row>
@@ -9050,8 +11761,12 @@
       <c r="AH4" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI4">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
       <c r="AK4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -9140,8 +11855,12 @@
       <c r="AH5">
         <v>2142</v>
       </c>
+      <c r="AI5">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
       <c r="AK5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -9209,8 +11928,12 @@
       <c r="AH6" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI6">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
       <c r="AK6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -9308,8 +12031,12 @@
       <c r="AH7">
         <v>3542</v>
       </c>
+      <c r="AI7" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -9377,8 +12104,12 @@
       <c r="AH8" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI8">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
       <c r="AK8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -9458,8 +12189,12 @@
       <c r="AH9" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI9" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9518,8 +12253,12 @@
       <c r="AH10" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI10">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
       <c r="AK10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9602,8 +12341,12 @@
       <c r="AH11">
         <v>2963</v>
       </c>
+      <c r="AI11">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
       <c r="AK11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -9674,8 +12417,12 @@
       <c r="AH12">
         <v>1001</v>
       </c>
+      <c r="AI12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2021</v>
+      </c>
       <c r="AK12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -9755,8 +12502,12 @@
       <c r="AH13">
         <v>840</v>
       </c>
+      <c r="AI13">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
       <c r="AK13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -9842,8 +12593,12 @@
       <c r="AH14">
         <v>905</v>
       </c>
+      <c r="AI14" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -9905,8 +12660,12 @@
       <c r="AH15" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI15">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
       <c r="AK15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -9986,8 +12745,12 @@
       <c r="AH16">
         <v>691</v>
       </c>
+      <c r="AI16">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
       <c r="AK16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -10079,8 +12842,12 @@
       <c r="AH17">
         <v>1284</v>
       </c>
+      <c r="AI17" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -10178,8 +12945,12 @@
       <c r="AH18">
         <v>7116</v>
       </c>
+      <c r="AI18" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -10250,8 +13021,12 @@
       <c r="AH19" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI19">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
       <c r="AK19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -10328,8 +13103,12 @@
       <c r="AH20" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI20">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
       <c r="AK20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -10415,8 +13194,12 @@
       <c r="AH21">
         <v>2811</v>
       </c>
+      <c r="AI21">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
       <c r="AK21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -10514,8 +13297,12 @@
       <c r="AH22">
         <v>910</v>
       </c>
+      <c r="AI22" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -10583,8 +13370,12 @@
       <c r="AH23" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI23">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
       <c r="AK23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -10658,8 +13449,12 @@
       <c r="AH24">
         <v>789</v>
       </c>
+      <c r="AI24">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
       <c r="AK24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -10742,8 +13537,12 @@
       <c r="AH25">
         <v>1714</v>
       </c>
+      <c r="AI25">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
       <c r="AK25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -10817,8 +13616,12 @@
       <c r="AH26" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI26">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
       <c r="AK26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -10877,8 +13680,12 @@
       <c r="AH27" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI27">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
       <c r="AK27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -10976,8 +13783,12 @@
       <c r="AH28">
         <v>1319</v>
       </c>
+      <c r="AI28" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -11042,8 +13853,12 @@
       <c r="AH29" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI29">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
       <c r="AK29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -11099,8 +13914,12 @@
       <c r="AH30" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI30">
+        <f t="shared" ca="1" si="0"/>
+        <v>2021</v>
+      </c>
       <c r="AK30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -11180,8 +13999,12 @@
       <c r="AH31">
         <v>685</v>
       </c>
+      <c r="AI31">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
       <c r="AK31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -11258,8 +14081,12 @@
       <c r="AH32">
         <v>9665</v>
       </c>
+      <c r="AI32">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
       <c r="AK32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -11336,8 +14163,12 @@
       <c r="AH33">
         <v>2749</v>
       </c>
+      <c r="AI33">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
       <c r="AK33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -11417,8 +14248,12 @@
       <c r="AH34">
         <v>4407</v>
       </c>
+      <c r="AI34" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -11495,8 +14330,12 @@
       <c r="AH35">
         <v>793</v>
       </c>
+      <c r="AI35">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
       <c r="AK35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -11576,8 +14415,12 @@
       <c r="AH36">
         <v>1072</v>
       </c>
+      <c r="AI36">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
       <c r="AK36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -11639,8 +14482,12 @@
       <c r="AH37" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI37">
+        <f t="shared" ca="1" si="0"/>
+        <v>2021</v>
+      </c>
       <c r="AK37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -11735,8 +14582,12 @@
       <c r="AH38">
         <v>3310</v>
       </c>
+      <c r="AI38" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -11816,8 +14667,12 @@
       <c r="AH39">
         <v>2519</v>
       </c>
+      <c r="AI39">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
       <c r="AK39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -11882,8 +14737,12 @@
       <c r="AH40" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI40">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
       <c r="AK40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -11966,8 +14825,12 @@
       <c r="AH41">
         <v>1646</v>
       </c>
+      <c r="AI41" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -12026,8 +14889,12 @@
       <c r="AH42" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI42">
+        <f t="shared" ca="1" si="0"/>
+        <v>2021</v>
+      </c>
       <c r="AK42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -12107,8 +14974,12 @@
       <c r="AH43" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI43">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
       <c r="AK43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -12203,8 +15074,12 @@
       <c r="AH44">
         <v>812</v>
       </c>
+      <c r="AI44" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -12290,8 +15165,12 @@
       <c r="AH45">
         <v>3550</v>
       </c>
+      <c r="AI45">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
       <c r="AK45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -12368,8 +15247,12 @@
       <c r="AH46" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI46">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
       <c r="AK46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -12434,8 +15317,12 @@
       <c r="AH47" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI47">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
       <c r="AK47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -12536,8 +15423,12 @@
       <c r="AH48">
         <v>1170</v>
       </c>
+      <c r="AI48" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -12611,8 +15502,12 @@
       <c r="AH49" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI49">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
       <c r="AK49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -12692,8 +15587,12 @@
       <c r="AH50" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI50">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
       <c r="AK50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -12767,8 +15666,12 @@
       <c r="AH51">
         <v>718</v>
       </c>
+      <c r="AI51">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
       <c r="AK51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -12848,8 +15751,12 @@
       <c r="AH52">
         <v>2228</v>
       </c>
+      <c r="AI52">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
       <c r="AK52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -12914,8 +15821,12 @@
       <c r="AH53" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI53">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
       <c r="AK53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -12992,8 +15903,12 @@
       <c r="AH54">
         <v>1798</v>
       </c>
+      <c r="AI54">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
       <c r="AK54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -13073,8 +15988,12 @@
       <c r="AH55" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI55">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
       <c r="AK55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -13151,8 +16070,12 @@
       <c r="AH56" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI56">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
       <c r="AK56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -13226,8 +16149,12 @@
       <c r="AH57">
         <v>885</v>
       </c>
+      <c r="AI57">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
       <c r="AK57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -13301,8 +16228,12 @@
       <c r="AH58">
         <v>2179</v>
       </c>
+      <c r="AI58">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
       <c r="AK58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -13388,8 +16319,12 @@
       <c r="AH59">
         <v>7983</v>
       </c>
+      <c r="AI59">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
       <c r="AK59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -13466,8 +16401,12 @@
       <c r="AH60" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI60">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
       <c r="AK60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -13532,8 +16471,12 @@
       <c r="AH61" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI61">
+        <f t="shared" ca="1" si="0"/>
+        <v>2021</v>
+      </c>
       <c r="AK61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -13619,8 +16562,12 @@
       <c r="AH62">
         <v>1157</v>
       </c>
+      <c r="AI62">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
       <c r="AK62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -13718,8 +16665,12 @@
       <c r="AH63">
         <v>823</v>
       </c>
+      <c r="AI63" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -13808,8 +16759,12 @@
       <c r="AH64">
         <v>795</v>
       </c>
+      <c r="AI64" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
       <c r="AK64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -13895,8 +16850,12 @@
       <c r="AH65">
         <v>3657</v>
       </c>
+      <c r="AI65">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
       <c r="AK65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -13952,8 +16911,12 @@
       <c r="AH66" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI66">
+        <f t="shared" ca="1" si="0"/>
+        <v>2021</v>
+      </c>
       <c r="AK66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14024,8 +16987,12 @@
       <c r="AH67">
         <v>3665</v>
       </c>
+      <c r="AI67">
+        <f t="shared" ref="AI67:AI130" ca="1" si="2">IF(M67="",YEAR(TODAY())-I67)</f>
+        <v>52</v>
+      </c>
       <c r="AK67">
-        <f t="shared" ref="AK67:AK130" si="1">6-SUM(COUNTBLANK(X67:AA67),COUNTBLANK(F67:G67))</f>
+        <f t="shared" ref="AK67:AK130" si="3">6-SUM(COUNTBLANK(X67:AA67),COUNTBLANK(F67:G67))</f>
         <v>4</v>
       </c>
     </row>
@@ -14105,8 +17072,12 @@
       <c r="AH68">
         <v>804</v>
       </c>
+      <c r="AI68">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
       <c r="AK68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -14180,8 +17151,12 @@
       <c r="AH69" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI69">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
       <c r="AK69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -14264,8 +17239,12 @@
       <c r="AH70">
         <v>805</v>
       </c>
+      <c r="AI70">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
       <c r="AK70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -14351,8 +17330,12 @@
       <c r="AH71">
         <v>2823</v>
       </c>
+      <c r="AI71">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
       <c r="AK71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -14408,8 +17391,12 @@
       <c r="AH72" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI72">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -14480,8 +17467,12 @@
       <c r="AH73" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI73">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
       <c r="AK73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -14564,8 +17555,12 @@
       <c r="AH74">
         <v>791</v>
       </c>
+      <c r="AI74">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
       <c r="AK74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -14645,8 +17640,12 @@
       <c r="AH75">
         <v>1415</v>
       </c>
+      <c r="AI75">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
       <c r="AK75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -14705,8 +17704,12 @@
       <c r="AH76" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI76">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -14780,8 +17783,12 @@
       <c r="AH77" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI77">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
       <c r="AK77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -14855,8 +17862,12 @@
       <c r="AH78">
         <v>897</v>
       </c>
+      <c r="AI78">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
       <c r="AK78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -14942,8 +17953,12 @@
       <c r="AH79" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI79">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
       <c r="AK79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -15026,8 +18041,12 @@
       <c r="AH80">
         <v>1029</v>
       </c>
+      <c r="AI80">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
       <c r="AK80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -15086,8 +18105,12 @@
       <c r="AH81" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI81">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -15158,8 +18181,12 @@
       <c r="AH82" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI82">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
       <c r="AK82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -15239,8 +18266,12 @@
       <c r="AH83">
         <v>1111</v>
       </c>
+      <c r="AI83">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
       <c r="AK83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -15314,8 +18345,12 @@
       <c r="AH84">
         <v>804</v>
       </c>
+      <c r="AI84">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
       <c r="AK84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -15374,8 +18409,12 @@
       <c r="AH85" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI85">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -15458,8 +18497,12 @@
       <c r="AH86">
         <v>1897</v>
       </c>
+      <c r="AI86" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AK86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -15533,8 +18576,12 @@
       <c r="AH87" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI87">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -15611,8 +18658,12 @@
       <c r="AH88" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI88">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
       <c r="AK88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -15695,8 +18746,12 @@
       <c r="AH89">
         <v>1071</v>
       </c>
+      <c r="AI89">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
       <c r="AK89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -15791,8 +18846,12 @@
       <c r="AH90">
         <v>2785</v>
       </c>
+      <c r="AI90" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AK90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -15866,8 +18925,12 @@
       <c r="AH91" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI91">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -15938,8 +19001,12 @@
       <c r="AH92">
         <v>789</v>
       </c>
+      <c r="AI92">
+        <f t="shared" ca="1" si="2"/>
+        <v>91</v>
+      </c>
       <c r="AK92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -16013,8 +19080,12 @@
       <c r="AH93" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI93">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
       <c r="AK93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -16079,8 +19150,12 @@
       <c r="AH94" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI94">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
+      </c>
       <c r="AK94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -16169,8 +19244,12 @@
       <c r="AH95">
         <v>3185</v>
       </c>
+      <c r="AI95" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AK95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -16241,8 +19320,12 @@
       <c r="AH96" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI96">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -16328,8 +19411,12 @@
       <c r="AH97">
         <v>3218</v>
       </c>
+      <c r="AI97">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
       <c r="AK97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -16391,8 +19478,12 @@
       <c r="AH98">
         <v>741</v>
       </c>
+      <c r="AI98">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
       <c r="AK98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -16463,8 +19554,12 @@
       <c r="AH99" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI99">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
       <c r="AK99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -16523,8 +19618,12 @@
       <c r="AH100" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI100">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -16601,8 +19700,12 @@
       <c r="AH101">
         <v>890</v>
       </c>
+      <c r="AI101">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -16697,8 +19800,12 @@
       <c r="AH102">
         <v>1282</v>
       </c>
+      <c r="AI102" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AK102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -16754,8 +19861,12 @@
       <c r="AH103" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI103">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -16835,8 +19946,12 @@
       <c r="AH104" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI104">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
       <c r="AK104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -16925,8 +20040,12 @@
       <c r="AH105">
         <v>2810</v>
       </c>
+      <c r="AI105" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AK105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -17000,8 +20119,12 @@
       <c r="AH106">
         <v>8981</v>
       </c>
+      <c r="AI106">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
       <c r="AK106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -17057,8 +20180,12 @@
       <c r="AH107" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI107">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17138,8 +20265,12 @@
       <c r="AH108" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI108">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
       <c r="AK108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -17216,8 +20347,12 @@
       <c r="AH109">
         <v>1788</v>
       </c>
+      <c r="AI109">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
       <c r="AK109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -17288,8 +20423,12 @@
       <c r="AH110">
         <v>755</v>
       </c>
+      <c r="AI110">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -17369,8 +20508,12 @@
       <c r="AH111" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI111">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
       <c r="AK111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -17456,8 +20599,12 @@
       <c r="AH112" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI112" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AK112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -17519,8 +20666,12 @@
       <c r="AH113" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI113">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17594,8 +20745,12 @@
       <c r="AH114" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI114">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
       <c r="AK114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -17672,8 +20827,12 @@
       <c r="AH115" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI115">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
       <c r="AK115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -17762,8 +20921,12 @@
       <c r="AH116" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI116">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
       <c r="AK116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -17828,8 +20991,12 @@
       <c r="AH117" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI117">
+        <f t="shared" ca="1" si="2"/>
+        <v>2021</v>
+      </c>
       <c r="AK117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -17912,8 +21079,12 @@
       <c r="AH118">
         <v>5658</v>
       </c>
+      <c r="AI118">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
       <c r="AK118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -17999,8 +21170,12 @@
       <c r="AH119">
         <v>6712</v>
       </c>
+      <c r="AI119">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
       <c r="AK119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -18074,8 +21249,12 @@
       <c r="AH120">
         <v>1293</v>
       </c>
+      <c r="AI120">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
       <c r="AK120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -18164,8 +21343,12 @@
       <c r="AH121">
         <v>5774</v>
       </c>
+      <c r="AI121">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
       <c r="AK121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -18239,8 +21422,12 @@
       <c r="AH122">
         <v>3745</v>
       </c>
+      <c r="AI122">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
       <c r="AK122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -18311,8 +21498,12 @@
       <c r="AH123">
         <v>2306</v>
       </c>
+      <c r="AI123">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
       <c r="AK123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -18398,8 +21589,12 @@
       <c r="AH124">
         <v>3834</v>
       </c>
+      <c r="AI124">
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
+      </c>
       <c r="AK124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -18494,8 +21689,12 @@
       <c r="AH125">
         <v>808</v>
       </c>
+      <c r="AI125" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AK125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -18596,8 +21795,12 @@
       <c r="AH126">
         <v>7217</v>
       </c>
+      <c r="AI126" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AK126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -18695,8 +21898,12 @@
       <c r="AH127">
         <v>11529</v>
       </c>
+      <c r="AI127" t="b">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
       <c r="AK127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -18773,8 +21980,12 @@
       <c r="AH128">
         <v>1907</v>
       </c>
+      <c r="AI128">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
       <c r="AK128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -18848,8 +22059,12 @@
       <c r="AH129">
         <v>1176</v>
       </c>
+      <c r="AI129">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
       <c r="AK129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -18926,8 +22141,12 @@
       <c r="AH130">
         <v>1967</v>
       </c>
+      <c r="AI130">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
       <c r="AK130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -18998,8 +22217,12 @@
       <c r="AH131">
         <v>1061</v>
       </c>
+      <c r="AI131">
+        <f t="shared" ref="AI131:AI191" ca="1" si="4">IF(M131="",YEAR(TODAY())-I131)</f>
+        <v>73</v>
+      </c>
       <c r="AK131">
-        <f t="shared" ref="AK131:AK191" si="2">6-SUM(COUNTBLANK(X131:AA131),COUNTBLANK(F131:G131))</f>
+        <f t="shared" ref="AK131:AK191" si="5">6-SUM(COUNTBLANK(X131:AA131),COUNTBLANK(F131:G131))</f>
         <v>4</v>
       </c>
     </row>
@@ -19094,8 +22317,12 @@
       <c r="AH132">
         <v>1372</v>
       </c>
+      <c r="AI132" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -19157,8 +22384,12 @@
       <c r="AH133" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI133">
+        <f t="shared" ca="1" si="4"/>
+        <v>2021</v>
+      </c>
       <c r="AK133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -19253,8 +22484,12 @@
       <c r="AH134" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI134" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -19337,8 +22572,12 @@
       <c r="AH135">
         <v>6381</v>
       </c>
+      <c r="AI135">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
       <c r="AK135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -19406,8 +22645,12 @@
       <c r="AH136" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI136">
+        <f t="shared" ca="1" si="4"/>
+        <v>2021</v>
+      </c>
       <c r="AK136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -19472,8 +22715,12 @@
       <c r="AH137" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI137">
+        <f t="shared" ca="1" si="4"/>
+        <v>2021</v>
+      </c>
       <c r="AK137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -19547,8 +22794,12 @@
       <c r="AH138" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI138">
+        <f t="shared" ca="1" si="4"/>
+        <v>89</v>
+      </c>
       <c r="AK138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -19640,8 +22891,12 @@
       <c r="AH139">
         <v>1389</v>
       </c>
+      <c r="AI139" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -19715,8 +22970,12 @@
       <c r="AH140">
         <v>795</v>
       </c>
+      <c r="AI140">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
       <c r="AK140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -19799,8 +23058,12 @@
       <c r="AH141">
         <v>4034</v>
       </c>
+      <c r="AI141">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
       <c r="AK141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -19880,8 +23143,12 @@
       <c r="AH142">
         <v>3060</v>
       </c>
+      <c r="AI142">
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
+      </c>
       <c r="AK142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -19967,8 +23234,12 @@
       <c r="AH143">
         <v>2174</v>
       </c>
+      <c r="AI143">
+        <f t="shared" ca="1" si="4"/>
+        <v>72</v>
+      </c>
       <c r="AK143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -20051,8 +23322,12 @@
       <c r="AH144" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI144">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
       <c r="AK144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -20132,8 +23407,12 @@
       <c r="AH145">
         <v>3895</v>
       </c>
+      <c r="AI145">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
       <c r="AK145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -20204,8 +23483,12 @@
       <c r="AH146" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI146">
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
+      </c>
       <c r="AK146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20306,8 +23589,12 @@
       <c r="AH147">
         <v>4450</v>
       </c>
+      <c r="AI147" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -20384,8 +23671,12 @@
       <c r="AH148">
         <v>3647</v>
       </c>
+      <c r="AI148">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
       <c r="AK148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -20453,8 +23744,12 @@
       <c r="AH149" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI149">
+        <f t="shared" ca="1" si="4"/>
+        <v>2021</v>
+      </c>
       <c r="AK149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -20519,8 +23814,12 @@
       <c r="AH150" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI150">
+        <f t="shared" ca="1" si="4"/>
+        <v>43</v>
+      </c>
       <c r="AK150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -20600,8 +23899,12 @@
       <c r="AH151">
         <v>2145</v>
       </c>
+      <c r="AI151">
+        <f t="shared" ca="1" si="4"/>
+        <v>52</v>
+      </c>
       <c r="AK151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -20690,8 +23993,12 @@
       <c r="AH152">
         <v>1500</v>
       </c>
+      <c r="AI152">
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
+      </c>
       <c r="AK152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -20759,8 +24066,12 @@
       <c r="AH153" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI153">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
       <c r="AK153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -20834,8 +24145,12 @@
       <c r="AH154" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI154">
+        <f t="shared" ca="1" si="4"/>
+        <v>37</v>
+      </c>
       <c r="AK154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -20906,8 +24221,12 @@
       <c r="AH155" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI155">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
       <c r="AK155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -20990,8 +24309,12 @@
       <c r="AH156" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI156">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
       <c r="AK156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -21050,8 +24373,12 @@
       <c r="AH157" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI157">
+        <f t="shared" ca="1" si="4"/>
+        <v>2021</v>
+      </c>
       <c r="AK157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21107,8 +24434,12 @@
       <c r="AH158" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI158">
+        <f t="shared" ca="1" si="4"/>
+        <v>2021</v>
+      </c>
       <c r="AK158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21191,8 +24522,12 @@
       <c r="AH159">
         <v>4469</v>
       </c>
+      <c r="AI159">
+        <f t="shared" ca="1" si="4"/>
+        <v>43</v>
+      </c>
       <c r="AK159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -21284,8 +24619,12 @@
       <c r="AH160" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI160" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -21362,8 +24701,12 @@
       <c r="AH161">
         <v>3243</v>
       </c>
+      <c r="AI161">
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
+      </c>
       <c r="AK161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -21440,8 +24783,12 @@
       <c r="AH162">
         <v>1104</v>
       </c>
+      <c r="AI162">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
       <c r="AK162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -21521,8 +24868,12 @@
       <c r="AH163">
         <v>3860</v>
       </c>
+      <c r="AI163">
+        <f t="shared" ca="1" si="4"/>
+        <v>37</v>
+      </c>
       <c r="AK163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -21602,8 +24953,12 @@
       <c r="AH164">
         <v>1186</v>
       </c>
+      <c r="AI164">
+        <f t="shared" ca="1" si="4"/>
+        <v>78</v>
+      </c>
       <c r="AK164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -21689,8 +25044,12 @@
       <c r="AH165">
         <v>952</v>
       </c>
+      <c r="AI165">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
       <c r="AK165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -21764,8 +25123,12 @@
       <c r="AH166">
         <v>737</v>
       </c>
+      <c r="AI166">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
       <c r="AK166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -21842,8 +25205,12 @@
       <c r="AH167">
         <v>829</v>
       </c>
+      <c r="AI167">
+        <f t="shared" ca="1" si="4"/>
+        <v>79</v>
+      </c>
       <c r="AK167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -21923,8 +25290,12 @@
       <c r="AH168">
         <v>3516</v>
       </c>
+      <c r="AI168">
+        <f t="shared" ca="1" si="4"/>
+        <v>55</v>
+      </c>
       <c r="AK168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -22007,8 +25378,12 @@
       <c r="AH169">
         <v>13349</v>
       </c>
+      <c r="AI169">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
       <c r="AK169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -22100,8 +25475,12 @@
       <c r="AH170">
         <v>2772</v>
       </c>
+      <c r="AI170" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -22175,8 +25554,12 @@
       <c r="AH171" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI171">
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
+      </c>
       <c r="AK171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -22265,8 +25648,12 @@
       <c r="AH172">
         <v>1566</v>
       </c>
+      <c r="AI172" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -22349,8 +25736,12 @@
       <c r="AH173">
         <v>2597</v>
       </c>
+      <c r="AI173">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
       <c r="AK173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -22433,8 +25824,12 @@
       <c r="AH174">
         <v>2706</v>
       </c>
+      <c r="AI174">
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
+      </c>
       <c r="AK174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -22517,8 +25912,12 @@
       <c r="AH175">
         <v>3952</v>
       </c>
+      <c r="AI175">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
       <c r="AK175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -22583,8 +25982,12 @@
       <c r="AH176" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI176">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
       <c r="AK176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -22667,8 +26070,12 @@
       <c r="AH177">
         <v>1369</v>
       </c>
+      <c r="AI177">
+        <f t="shared" ca="1" si="4"/>
+        <v>76</v>
+      </c>
       <c r="AK177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -22757,8 +26164,12 @@
       <c r="AH178">
         <v>801</v>
       </c>
+      <c r="AI178" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -22844,8 +26255,12 @@
       <c r="AH179">
         <v>1624</v>
       </c>
+      <c r="AI179" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -22928,8 +26343,12 @@
       <c r="AH180">
         <v>1185</v>
       </c>
+      <c r="AI180">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
       <c r="AK180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -22988,8 +26407,12 @@
       <c r="AH181" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI181">
+        <f t="shared" ca="1" si="4"/>
+        <v>2021</v>
+      </c>
       <c r="AK181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -23051,8 +26474,12 @@
       <c r="AH182" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI182">
+        <f t="shared" ca="1" si="4"/>
+        <v>43</v>
+      </c>
       <c r="AK182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -23147,8 +26574,12 @@
       <c r="AH183">
         <v>805</v>
       </c>
+      <c r="AI183" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -23222,8 +26653,12 @@
       <c r="AH184" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI184">
+        <f t="shared" ca="1" si="4"/>
+        <v>2021</v>
+      </c>
       <c r="AK184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -23303,8 +26738,12 @@
       <c r="AH185">
         <v>1367</v>
       </c>
+      <c r="AI185">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
       <c r="AK185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -23402,8 +26841,12 @@
       <c r="AH186" t="e">
         <v>#N/A</v>
       </c>
+      <c r="AI186" t="b">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
       <c r="AK186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -23486,8 +26929,12 @@
       <c r="AH187">
         <v>1206</v>
       </c>
+      <c r="AI187">
+        <f t="shared" ca="1" si="4"/>
+        <v>73</v>
+      </c>
       <c r="AK187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -23570,8 +27017,12 @@
       <c r="AH188">
         <v>2448</v>
       </c>
+      <c r="AI188">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
       <c r="AK188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -23654,8 +27105,12 @@
       <c r="AH189">
         <v>7938</v>
       </c>
+      <c r="AI189">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
       <c r="AK189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -23738,8 +27193,12 @@
       <c r="AH190">
         <v>5718</v>
       </c>
+      <c r="AI190">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
       <c r="AK190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -23816,12 +27275,17 @@
       <c r="AH191">
         <v>895</v>
       </c>
+      <c r="AI191">
+        <f t="shared" ca="1" si="4"/>
+        <v>66</v>
+      </c>
       <c r="AK191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI191" xr:uid="{F287D302-9EDC-4955-B499-DCD2F85FCAA2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>